--- a/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KBS tijdschrijfformulier Yannick Santing.xlsx
+++ b/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KBS tijdschrijfformulier Yannick Santing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gebruiker\Desktop\Yannick\School\KBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projectkbs\kbs verslagen\9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)\Tijdschrijfformulieren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA4D33-CDAD-4043-A808-0B3984841953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB565D-A019-4AC4-8349-31210250CF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Alle verslagen bijgewerkt</t>
+  </si>
+  <si>
+    <t>Website bouwen en verslagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teamoverleggen </t>
   </si>
 </sst>
 </file>
@@ -626,7 +632,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +685,7 @@
       </c>
       <c r="B6">
         <f>SUM(C10:C152)/60</f>
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -691,7 +697,7 @@
       </c>
       <c r="B7">
         <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -878,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -886,16 +892,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,10 +912,18 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,15 +981,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ecaeb53ef39f7dced4039396bfb5225c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="051855bee6cd9dc669ac4e71707befca" ns2:_="" ns3:_="">
     <xsd:import namespace="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
@@ -1184,6 +1189,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -1202,14 +1216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC50E1B9-9AEE-4E53-B3CF-7430661C4B31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1226,4 +1232,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KBS tijdschrijfformulier Yannick Santing.xlsx
+++ b/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/KBS tijdschrijfformulier Yannick Santing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projectkbs\kbs verslagen\9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)\Tijdschrijfformulieren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB565D-A019-4AC4-8349-31210250CF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E52A3-456B-48CD-8EDC-D8814FCD9F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Teamoverleggen </t>
+  </si>
+  <si>
+    <t>Programmeren en demo, verslagen</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +890,7 @@
         <v>1020</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,6 +984,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010031DCE2413392E94399C66D8B3C6C85EE" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ecaeb53ef39f7dced4039396bfb5225c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xmlns:ns3="7178be8b-d0ef-4995-97d9-396f4bad9a56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="051855bee6cd9dc669ac4e71707befca" ns2:_="" ns3:_="">
     <xsd:import namespace="e7647ff1-e2f7-42a1-a68c-3c96587cf758"/>
@@ -1189,15 +1201,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
@@ -1216,6 +1219,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC50E1B9-9AEE-4E53-B3CF-7430661C4B31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1232,12 +1243,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>